--- a/Livro1.xlsx
+++ b/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29378E04-9FF2-4F39-B32E-433E309D6F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9B8D61-3C5B-44AF-B473-8BE9691876FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Material</t>
   </si>
   <si>
-    <t>49.4</t>
-  </si>
-  <si>
     <t>Informations</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Material: 1-Aluminium ; 0-Steel</t>
+  </si>
+  <si>
+    <t>The measurements are in millimeters</t>
   </si>
 </sst>
 </file>
@@ -200,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,6 +228,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,6 +246,270 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conexão reta unidirecional 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08E1AFE-52AA-5552-1ED3-21D1BDB05177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16330612" y="423863"/>
+          <a:ext cx="0" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conexão reta unidirecional 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719D8B32-0FD6-4807-A6DB-93B44C268FAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="-5400000">
+          <a:off x="17173576" y="-385762"/>
+          <a:ext cx="0" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34912EED-D2B9-0177-53A6-C410C0B0DAF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16078201" y="2071689"/>
+          <a:ext cx="71437" cy="185737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>z</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>121919</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CaixaDeTexto 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05983A90-DD5D-4AF1-B2F0-E991269DF9B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18007013" y="385762"/>
+          <a:ext cx="112394" cy="119062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>r</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -545,7 +812,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -594,7 +861,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
@@ -637,9 +904,7 @@
       <c r="M2" s="1">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
@@ -648,8 +913,8 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
+      <c r="C3" s="11">
+        <v>49.4</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -682,113 +947,187 @@
         <v>1</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>49.4</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2.5</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="O4" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>913.68</v>
+      </c>
+      <c r="C5" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2.5</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="O5" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>913.78</v>
+      </c>
+      <c r="C6" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="O6" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>972.63</v>
+      </c>
+      <c r="C7" s="1">
+        <v>21.25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="O7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>977.63</v>
+      </c>
+      <c r="C8" s="1">
+        <v>16.25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
+      <c r="O8" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>982.63</v>
+      </c>
+      <c r="C9" s="1">
+        <v>11.25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="1">
+        <v>26.3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -815,7 +1154,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
@@ -833,7 +1172,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="O12" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
@@ -851,7 +1190,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="O13" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
@@ -965,5 +1304,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Livro1.xlsx
+++ b/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9B8D61-3C5B-44AF-B473-8BE9691876FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C0C971-0664-4740-A469-59C81FB7B8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Points</t>
   </si>
@@ -47,33 +47,12 @@
     <t>r</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
     <t>Ne</t>
   </si>
   <si>
     <t>Interp</t>
   </si>
   <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>w1</t>
-  </si>
-  <si>
-    <t>beta1</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
@@ -89,12 +68,6 @@
     <t>Run this commands on Terminal</t>
   </si>
   <si>
-    <t>Boundary Conditions - v, w and beta are the degrees of freedom: 1-free ;  0-fixed</t>
-  </si>
-  <si>
-    <t>Boundary Conditions - v1, w1 and beta1 are for elements in between points</t>
-  </si>
-  <si>
     <t>Ne - Number of Elements in between that point and the next one</t>
   </si>
   <si>
@@ -105,13 +78,58 @@
   </si>
   <si>
     <t>The measurements are in millimeters</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>Conditions1</t>
+  </si>
+  <si>
+    <t>Boundary Conditions1 are for elements in between points</t>
+  </si>
+  <si>
+    <t>Boundary Conditions:  0-Encastrado; 1-Deslocamento Vertical; 2-Deslocamento Horizontal;   3-Rotação; 4-Deslocamento Vertical + Horizontal; 5-Deslocamemto Vertical + Rotação;   6-Deslocamento Horizontal + Rotação; 7-Livre</t>
+  </si>
+  <si>
+    <t>Poisson Ratio</t>
+  </si>
+  <si>
+    <t>Density [kg/m^3]</t>
+  </si>
+  <si>
+    <t>Elastic Modulus [GPa]</t>
+  </si>
+  <si>
+    <t>Tensile Yield Stress [MPa]</t>
+  </si>
+  <si>
+    <t>Tensile Strength [MPa]</t>
+  </si>
+  <si>
+    <t>Compressive Strength [MPa]</t>
+  </si>
+  <si>
+    <t>Shear Strength [MPa]</t>
+  </si>
+  <si>
+    <t>Material Properties</t>
+  </si>
+  <si>
+    <t>thi</t>
+  </si>
+  <si>
+    <t>AL2024-T3(2)</t>
+  </si>
+  <si>
+    <t>AL6061-T6(1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +170,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -173,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -196,11 +221,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,23 +272,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -252,23 +333,698 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>353523</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>125288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>227133</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Agrupar 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3700075F-AC57-664F-8C94-20B6322F39FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="21744527" y="735694"/>
+          <a:ext cx="5078821" cy="8005841"/>
+          <a:chOff x="16846428" y="389059"/>
+          <a:chExt cx="2086708" cy="2509107"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="3" name="Conexão reta unidirecional 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08E1AFE-52AA-5552-1ED3-21D1BDB05177}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17098839" y="429725"/>
+            <a:ext cx="0" cy="2468441"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="22225">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="Conexão reta unidirecional 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719D8B32-0FD6-4807-A6DB-93B44C268FAB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="-5400000">
+            <a:off x="17937407" y="-372940"/>
+            <a:ext cx="0" cy="1991458"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="22225">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34912EED-D2B9-0177-53A6-C410C0B0DAF4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16846428" y="2539880"/>
+            <a:ext cx="71437" cy="189033"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>z</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="CaixaDeTexto 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05983A90-DD5D-4AF1-B2F0-E991269DF9B2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18766448" y="389059"/>
+            <a:ext cx="112394" cy="121627"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>r</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>241787</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>373671</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7FF8DC-D717-DEBB-6AFE-F46B93461F00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13781941" y="1480038"/>
+          <a:ext cx="131884" cy="124558"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>254690</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>175847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>386574</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>117232</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64A39E3-4F12-4153-8B6C-28439921DA27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22967120" y="7373260"/>
+          <a:ext cx="131884" cy="122493"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>527540</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>51290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DB278A-C5D3-46D1-A49B-905D436C7DD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15357232" y="8484578"/>
+          <a:ext cx="131884" cy="124558"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>293078</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>424962</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F60F0E2-92FA-401F-90E8-D98AC81A0FF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15774867" y="6103327"/>
+          <a:ext cx="131884" cy="124558"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219809</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>351693</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Oval 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F9E1ADE-2C11-4253-84B2-1DC5DB2235D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15049501" y="7129097"/>
+          <a:ext cx="131884" cy="124558"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>395656</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>527540</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Oval 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7D57E8-2CA3-48DF-80A5-FC5DA7A6989C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15225348" y="6865327"/>
+          <a:ext cx="131884" cy="124558"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>298940</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>430824</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>130421</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Oval 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A122DB3-B923-4956-B1A8-408FD3E06429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15780729" y="1471248"/>
+          <a:ext cx="131884" cy="124558"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>367548</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>97526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>405648</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Conexão reta unidirecional 2">
+        <xdr:cNvPr id="15" name="Conexão reta 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08E1AFE-52AA-5552-1ED3-21D1BDB05177}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA799DF1-FC0E-8BAE-B984-2E6CA7D7420C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -276,25 +1032,26 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16330612" y="423863"/>
-          <a:ext cx="0" cy="2000250"/>
+          <a:off x="15849337" y="1562911"/>
+          <a:ext cx="38100" cy="4639406"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="22225">
-          <a:tailEnd type="triangle"/>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -305,49 +1062,49 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>508226</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>176213</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>359020</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>157453</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Conexão reta unidirecional 3">
+        <xdr:cNvPr id="17" name="Conexão reta 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719D8B32-0FD6-4807-A6DB-93B44C268FAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F491E0EB-9619-2490-E272-D772172E871C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="4"/>
+          <a:endCxn id="12" idx="7"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="-5400000">
-          <a:off x="17173576" y="-385762"/>
-          <a:ext cx="0" cy="2000250"/>
+        <a:xfrm flipH="1">
+          <a:off x="15337918" y="6227885"/>
+          <a:ext cx="502891" cy="655683"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="22225">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -358,69 +1115,148 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>100014</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>320632</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>117232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>592760</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>51290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conexão reta 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD84CFA-78AF-95BA-E9A4-2B917E80A10C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="4"/>
+          <a:endCxn id="8" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23033062" y="7495753"/>
+          <a:ext cx="272128" cy="1020713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>273323</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>432289</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+        <xdr:cNvPr id="21" name="Forma livre: Forma 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34912EED-D2B9-0177-53A6-C410C0B0DAF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9385D42-746B-28BB-8E09-7A0C2AA24A4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16078201" y="2071689"/>
-          <a:ext cx="71437" cy="185737"/>
+          <a:off x="15103015" y="6967904"/>
+          <a:ext cx="158966" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:custGeom>
           <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 158966 w 158966"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 571500"/>
+            <a:gd name="connsiteX1" fmla="*/ 12427 w 158966"/>
+            <a:gd name="connsiteY1" fmla="*/ 227134 h 571500"/>
+            <a:gd name="connsiteX2" fmla="*/ 71043 w 158966"/>
+            <a:gd name="connsiteY2" fmla="*/ 571500 h 571500"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="158966" h="571500">
+              <a:moveTo>
+                <a:pt x="158966" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="93023" y="65942"/>
+                <a:pt x="27081" y="131884"/>
+                <a:pt x="12427" y="227134"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-2227" y="322384"/>
+                <a:pt x="-21765" y="504337"/>
+                <a:pt x="71043" y="571500"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>z</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -428,85 +1264,55 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>261101</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>24104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>121919</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>411510</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>32894</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CaixaDeTexto 9">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conexão reta 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05983A90-DD5D-4AF1-B2F0-E991269DF9B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5A37A1-0AFE-7DD4-204D-9FE64CC0FF6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+          <a:endCxn id="13" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18007013" y="385762"/>
-          <a:ext cx="112394" cy="119062"/>
+        <a:xfrm flipV="1">
+          <a:off x="21672228" y="1479686"/>
+          <a:ext cx="2102364" cy="8790"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>r</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -809,18 +1615,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C8E3EE-99AB-4972-A73D-D1EFEBD6EA1A}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="15" max="15" width="88.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.9296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.53125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="81.9296875" customWidth="1"/>
+    <col min="24" max="24" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -831,40 +1644,44 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="T1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="U1" s="13"/>
     </row>
-    <row r="2" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -872,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
@@ -881,46 +1698,50 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
+      <c r="J2" s="12"/>
+      <c r="K2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="17">
+        <v>2700</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="6"/>
+        <v>2780</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="14"/>
     </row>
-    <row r="3" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="1">
         <v>49.4</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -929,56 +1750,80 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="12"/>
+      <c r="K3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="17">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="M3" s="1">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="T3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="14"/>
+    </row>
+    <row r="4" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C4" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="11">
-        <v>2.1</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="11">
-        <v>49.4</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="O4" s="6" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="T4" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="U4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -988,25 +1833,45 @@
       <c r="C5" s="1">
         <v>49.4</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="1">
         <v>2.5</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="O5" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="17">
+        <v>276</v>
+      </c>
+      <c r="M5" s="1">
+        <v>345</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="T5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="14"/>
     </row>
-    <row r="6" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>3.1</v>
       </c>
@@ -1019,22 +1884,42 @@
       <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="O6" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="17">
+        <v>310</v>
+      </c>
+      <c r="M6" s="1">
+        <v>483</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="T6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="14"/>
     </row>
-    <row r="7" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1047,22 +1932,42 @@
       <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
       <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="O7" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="17">
+        <v>295</v>
+      </c>
+      <c r="M7" s="1">
+        <v>462</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="T7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1075,22 +1980,42 @@
       <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7</v>
+      </c>
       <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="O8" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="17">
+        <v>207</v>
+      </c>
+      <c r="M8" s="1">
+        <v>283</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="T8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="14"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1103,19 +2028,33 @@
       <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
       <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="U9" s="14"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1128,18 +2067,28 @@
       <c r="D10" s="1">
         <v>4</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="O10" s="4"/>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="14"/>
     </row>
-    <row r="11" spans="1:15" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1149,15 +2098,21 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="O11" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="T11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="14"/>
     </row>
-    <row r="12" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1167,15 +2122,21 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="O12" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="T12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12" s="14"/>
     </row>
-    <row r="13" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1185,15 +2146,21 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="O13" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="T13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="14"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1203,13 +2170,19 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="O14" s="10"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1219,13 +2192,19 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="O15" s="10"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="14"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1235,13 +2214,19 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="O16" s="8"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="14"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1251,12 +2236,18 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="U17" s="14"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1266,12 +2257,18 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="U18" s="14"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1285,8 +2282,17 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1300,6 +2306,15 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Livro1.xlsx
+++ b/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C0C971-0664-4740-A469-59C81FB7B8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E90B672-6D83-4323-8263-29641A4D8D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Points</t>
   </si>
@@ -68,13 +68,7 @@
     <t>Run this commands on Terminal</t>
   </si>
   <si>
-    <t>Ne - Number of Elements in between that point and the next one</t>
-  </si>
-  <si>
     <t>Interpolation Type: 1-Linear ; 0-Cubic (Interp)</t>
-  </si>
-  <si>
-    <t>Material: 1-Aluminium ; 0-Steel</t>
   </si>
   <si>
     <t>The measurements are in millimeters</t>
@@ -124,12 +118,51 @@
   <si>
     <t>AL6061-T6(1)</t>
   </si>
+  <si>
+    <t>Element_Dimension</t>
+  </si>
+  <si>
+    <t>Element_Dimension - Size of the element, so we are able to do a study of the mesh</t>
+  </si>
+  <si>
+    <t>Pressure Function</t>
+  </si>
+  <si>
+    <t>Material: 1-Aluminium ; 0-Steel (Properties at the temperature that the engine will work)</t>
+  </si>
+  <si>
+    <t>The coloured cells are for the user to input data</t>
+  </si>
+  <si>
+    <t>Straight Line Distance Between Points</t>
+  </si>
+  <si>
+    <t>Ne - Number of elements between 2 points</t>
+  </si>
+  <si>
+    <t>Discontinuity</t>
+  </si>
+  <si>
+    <t>NumRowsRead</t>
+  </si>
+  <si>
+    <t>Nn</t>
+  </si>
+  <si>
+    <t>Nn - Number of nods to add</t>
+  </si>
+  <si>
+    <t>True_Element_Dimension</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +182,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -178,7 +204,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +223,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -250,6 +294,15 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -260,31 +313,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -306,10 +353,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -329,19 +422,983 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>913.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AA3-489C-93CA-20CADA14DF60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="38367088"/>
+        <c:axId val="1681096207"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="38367088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>r</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1681096207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1681096207"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>z</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38367088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>353523</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>125288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>227133</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -357,8 +1414,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21744527" y="735694"/>
-          <a:ext cx="5078821" cy="8005841"/>
+          <a:off x="42283096" y="934261"/>
+          <a:ext cx="5047119" cy="8007495"/>
           <a:chOff x="16846428" y="389059"/>
           <a:chExt cx="2086708" cy="2509107"/>
         </a:xfrm>
@@ -567,15 +1624,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>241787</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>14653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>373671</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>139211</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -630,15 +1687,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>254690</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>175847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>386574</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>117232</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -693,15 +1750,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>527540</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>109904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>51290</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -756,15 +1813,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>293078</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>109904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>424962</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>51288</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -819,15 +1876,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>219809</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>351693</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>161193</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -882,15 +1939,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>395656</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>139212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>527540</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>80596</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -945,15 +2002,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>298940</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>5863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>430824</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>130421</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1008,15 +2065,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>367548</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>97526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>405648</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>25720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1062,15 +2119,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>508226</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>51288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>359020</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>157453</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1115,15 +2172,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>320632</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>117232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>592760</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>51290</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1168,15 +2225,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>273323</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>432289</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>80596</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1264,15 +2321,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>261101</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>24104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>411510</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>32894</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1313,6 +2370,42 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>822673</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>86506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2609589</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>45666</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Gráfico 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E835C40-D4AB-E5EE-12C8-209D89456B83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1615,706 +2708,1100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C8E3EE-99AB-4972-A73D-D1EFEBD6EA1A}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.9296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.53125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="81.9296875" customWidth="1"/>
-    <col min="24" max="24" width="9.1328125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1328125" customWidth="1"/>
+    <col min="12" max="12" width="5.86328125" customWidth="1"/>
+    <col min="13" max="13" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.06640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.06640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.53125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="81.9296875" customWidth="1"/>
+    <col min="34" max="34" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="T1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="31"/>
+      <c r="V1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AE1" s="11"/>
+    </row>
+    <row r="2" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0</v>
+      </c>
+      <c r="G2" s="22">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I7" si="0">SQRT((C3-C2)^2+(B3-B2)^2)</f>
+        <v>49.4</v>
+      </c>
+      <c r="J2" s="1">
+        <f>I2/H2</f>
+        <v>4.9399999999999995</v>
+      </c>
+      <c r="K2" s="1">
+        <f>ROUND(I2/H2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="L2" s="1">
+        <f>ROUND(I2/H2,0)-1</f>
+        <v>4</v>
+      </c>
+      <c r="M2" s="16">
+        <v>1</v>
+      </c>
+      <c r="N2" s="16">
+        <v>2</v>
+      </c>
+      <c r="O2" s="17"/>
+      <c r="P2" s="16">
+        <f>COUNTIF(A2:A58, "&lt;&gt;")</f>
+        <v>7</v>
+      </c>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="34">
+        <v>2700</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2780</v>
+      </c>
+      <c r="U2" s="32"/>
+      <c r="V2" s="4"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AE2" s="12"/>
+    </row>
+    <row r="3" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>49.4</v>
+      </c>
+      <c r="D3" s="16">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16">
+        <v>6</v>
+      </c>
+      <c r="G3" s="22">
+        <v>1</v>
+      </c>
+      <c r="H3" s="16">
+        <v>120</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>913.68</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J7" si="1">I3/H3</f>
+        <v>7.6139999999999999</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K7" si="2">ROUND(I3/H3,0)</f>
+        <v>8</v>
+      </c>
+      <c r="L3" s="1">
+        <f>ROUND(I3/H3,0)-1</f>
+        <v>7</v>
+      </c>
+      <c r="M3" s="16">
+        <v>1</v>
+      </c>
+      <c r="N3" s="16">
+        <v>7</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="4"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AE3" s="12"/>
+    </row>
+    <row r="4" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16">
+        <v>913.68</v>
+      </c>
+      <c r="C4" s="16">
+        <v>49.4</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
+        <v>7</v>
+      </c>
+      <c r="G4" s="22">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>72.04696315598602</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0039135963321684</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L4" s="1">
+        <f>ROUND(I4/H4,0)-1</f>
+        <v>5</v>
+      </c>
+      <c r="M4" s="16">
+        <v>1</v>
+      </c>
+      <c r="N4" s="16">
+        <v>7</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="34">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="T4" s="1">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="U4" s="32"/>
+      <c r="V4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AE4" s="12"/>
+    </row>
+    <row r="5" spans="1:31" ht="45" x14ac:dyDescent="0.45">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16">
+        <v>980</v>
+      </c>
+      <c r="C5" s="16">
+        <v>21.25</v>
+      </c>
+      <c r="D5" s="16">
+        <v>4</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>7</v>
+      </c>
+      <c r="G5" s="22">
+        <v>2</v>
+      </c>
+      <c r="H5" s="16">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>50.24937810560445</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.024937810560445</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <f>ROUND(I5/H5,0)-1</f>
+        <v>4</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0</v>
+      </c>
+      <c r="N5" s="16">
+        <v>7</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="34">
+        <v>0.33</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="U5" s="32"/>
+      <c r="V5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AE5" s="12"/>
+    </row>
+    <row r="6" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1030</v>
+      </c>
+      <c r="C6" s="16">
+        <v>16.25</v>
+      </c>
+      <c r="D6" s="16">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>7</v>
+      </c>
+      <c r="G6" s="22">
+        <v>2</v>
+      </c>
+      <c r="H6" s="16">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>70.011159824702233</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8004463929880892</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <f>ROUND(I6/H6,0)-1</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <v>7</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="34">
+        <v>276</v>
+      </c>
+      <c r="T6" s="1">
+        <v>345</v>
+      </c>
+      <c r="U6" s="32"/>
+      <c r="V6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AE6" s="12"/>
+    </row>
+    <row r="7" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1100</v>
+      </c>
+      <c r="C7" s="16">
+        <v>17.5</v>
+      </c>
+      <c r="D7" s="16">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="18" t="s">
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>7</v>
+      </c>
+      <c r="G7" s="22">
+        <v>2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>200.19350638819432</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6731168796064777</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L7" s="1">
+        <f>ROUND(I7/H7,0)-1</f>
+        <v>6</v>
+      </c>
+      <c r="M7" s="16">
+        <v>1</v>
+      </c>
+      <c r="N7" s="16">
+        <v>7</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="34">
+        <v>310</v>
+      </c>
+      <c r="T7" s="1">
+        <v>483</v>
+      </c>
+      <c r="U7" s="32"/>
+      <c r="V7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="T1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="13"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AE7" s="12"/>
     </row>
-    <row r="2" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="8" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1300</v>
+      </c>
+      <c r="C8" s="16">
+        <v>26.3</v>
+      </c>
+      <c r="D8" s="16">
+        <v>4</v>
+      </c>
+      <c r="E8" s="16">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="F8" s="16">
+        <v>7</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="34">
+        <v>295</v>
+      </c>
+      <c r="T8" s="1">
+        <v>462</v>
+      </c>
+      <c r="U8" s="32"/>
+      <c r="V8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AE8" s="12"/>
+    </row>
+    <row r="9" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="L9" s="23"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="34">
+        <v>207</v>
+      </c>
+      <c r="T9" s="1">
+        <v>283</v>
+      </c>
+      <c r="U9" s="32"/>
+      <c r="V9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="17">
-        <v>2700</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2780</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="14"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AE9" s="12"/>
     </row>
-    <row r="3" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>49.4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
+    <row r="10" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="P10" s="10"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AE10" s="12"/>
+    </row>
+    <row r="11" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AE11" s="12"/>
+    </row>
+    <row r="12" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AE12" s="12"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AE13" s="12"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AE14" s="12"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AE15" s="12"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AE16" s="12"/>
+    </row>
+    <row r="17" spans="1:32" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AE17" s="12"/>
+    </row>
+    <row r="18" spans="1:32" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="17">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="M3" s="1">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="T3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="14"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AE18" s="12"/>
     </row>
-    <row r="4" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C4" s="1">
-        <v>49.4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1">
-        <v>100</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="17">
-        <v>0.33</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="T4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="U4" s="14"/>
+    <row r="19" spans="1:32" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AE19" s="12"/>
     </row>
-    <row r="5" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>913.68</v>
-      </c>
-      <c r="C5" s="1">
-        <v>49.4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="17">
-        <v>276</v>
-      </c>
-      <c r="M5" s="1">
-        <v>345</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="T5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="U5" s="14"/>
-    </row>
-    <row r="6" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>913.78</v>
-      </c>
-      <c r="C6" s="1">
-        <v>49.4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="17">
-        <v>310</v>
-      </c>
-      <c r="M6" s="1">
-        <v>483</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="T6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="14"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>972.63</v>
-      </c>
-      <c r="C7" s="1">
-        <v>21.25</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="17">
-        <v>295</v>
-      </c>
-      <c r="M7" s="1">
-        <v>462</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="T7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="U7" s="14"/>
-    </row>
-    <row r="8" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>977.63</v>
-      </c>
-      <c r="C8" s="1">
-        <v>16.25</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2</v>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="17">
-        <v>207</v>
-      </c>
-      <c r="M8" s="1">
-        <v>283</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="T8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U8" s="14"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>982.63</v>
-      </c>
-      <c r="C9" s="1">
-        <v>11.25</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="U9" s="14"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1006</v>
-      </c>
-      <c r="C10" s="1">
-        <v>26.3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
-        <v>2</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="14"/>
-    </row>
-    <row r="11" spans="1:21" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="T11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="U11" s="14"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="T12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="U12" s="14"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="T13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="14"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="14"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="14"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="14"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="U17" s="14"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="U18" s="14"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="V22" s="9"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Livro1.xlsx
+++ b/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E90B672-6D83-4323-8263-29641A4D8D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF51F9E-A2AB-42E2-AF8B-8B228A0B5E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
@@ -152,7 +152,7 @@
     <t>Nn - Number of nods to add</t>
   </si>
   <si>
-    <t>True_Element_Dimension</t>
+    <t>Dimension_Used</t>
   </si>
 </sst>
 </file>
@@ -2711,7 +2711,7 @@
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Livro1.xlsx
+++ b/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF51F9E-A2AB-42E2-AF8B-8B228A0B5E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AA70C3-8E17-46C0-BD50-AB81AA9D73A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>

--- a/Livro1.xlsx
+++ b/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AA70C3-8E17-46C0-BD50-AB81AA9D73A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D5C425-D446-4128-8241-CC11A6AA61AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
@@ -480,22 +480,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.4</c:v>
+                  <c:v>48.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.4</c:v>
+                  <c:v>48.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.25</c:v>
+                  <c:v>11.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.25</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.3</c:v>
+                  <c:v>23.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -513,19 +513,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>913.68</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>980</c:v>
+                  <c:v>868.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1030</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1100</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1300</c:v>
+                  <c:v>1001.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,8 +1414,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="42283096" y="934261"/>
-          <a:ext cx="5047119" cy="8007495"/>
+          <a:off x="42321839" y="931998"/>
+          <a:ext cx="5083202" cy="8056492"/>
           <a:chOff x="16846428" y="389059"/>
           <a:chExt cx="2086708" cy="2509107"/>
         </a:xfrm>
@@ -2374,16 +2374,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>822673</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>208360</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>86506</xdr:rowOff>
+      <xdr:rowOff>186035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2609589</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>45666</xdr:rowOff>
+      <xdr:colOff>2661897</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>8503</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2710,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C8E3EE-99AB-4972-A73D-D1EFEBD6EA1A}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2836,11 +2836,11 @@
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I7" si="0">SQRT((C3-C2)^2+(B3-B2)^2)</f>
-        <v>49.4</v>
+        <v>48.59</v>
       </c>
       <c r="J2" s="1">
         <f>I2/H2</f>
-        <v>4.9399999999999995</v>
+        <v>4.859</v>
       </c>
       <c r="K2" s="1">
         <f>ROUND(I2/H2,0)</f>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="16">
-        <v>49.4</v>
+        <v>48.59</v>
       </c>
       <c r="D3" s="16">
         <v>3</v>
@@ -2906,19 +2906,19 @@
       </c>
       <c r="I3" s="1">
         <f t="shared" si="0"/>
-        <v>913.68</v>
+        <v>810</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J7" si="1">I3/H3</f>
-        <v>7.6139999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K7" si="2">ROUND(I3/H3,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" s="1">
         <f>ROUND(I3/H3,0)-1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M3" s="16">
         <v>1</v>
@@ -2945,10 +2945,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="16">
-        <v>913.68</v>
+        <v>810</v>
       </c>
       <c r="C4" s="16">
-        <v>49.4</v>
+        <v>48.59</v>
       </c>
       <c r="D4" s="16">
         <v>2.5</v>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>72.04696315598602</v>
+        <v>69.345114463817879</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="1"/>
-        <v>6.0039135963321684</v>
+        <v>5.7787595386514896</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="2"/>
@@ -3013,10 +3013,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="16">
-        <v>980</v>
+        <f>B4+58.85</f>
+        <v>868.85</v>
       </c>
       <c r="C5" s="16">
-        <v>21.25</v>
+        <v>11.91</v>
       </c>
       <c r="D5" s="16">
         <v>4</v>
@@ -3035,19 +3036,19 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>50.24937810560445</v>
+        <v>31.285629288860385</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="1"/>
-        <v>5.024937810560445</v>
+        <v>3.1285629288860384</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1">
         <f>ROUND(I5/H5,0)-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5" s="16">
         <v>0</v>
@@ -3081,10 +3082,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16">
-        <v>1030</v>
+        <v>900</v>
       </c>
       <c r="C6" s="16">
-        <v>16.25</v>
+        <v>9</v>
       </c>
       <c r="D6" s="16">
         <v>4</v>
@@ -3103,19 +3104,19 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>70.011159824702233</v>
+        <v>50.009999000199947</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="1"/>
-        <v>2.8004463929880892</v>
+        <v>2.0003999600079978</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1">
         <f>ROUND(I6/H6,0)-1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="16">
         <v>0</v>
@@ -3149,10 +3150,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="16">
-        <v>1100</v>
+        <v>950</v>
       </c>
       <c r="C7" s="16">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="D7" s="16">
         <v>4</v>
@@ -3171,19 +3172,19 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>200.19350638819432</v>
+        <v>53.577047324390669</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="1"/>
-        <v>6.6731168796064777</v>
+        <v>1.7859015774796889</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L7" s="1">
         <f>ROUND(I7/H7,0)-1</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M7" s="16">
         <v>1</v>
@@ -3217,10 +3218,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="16">
-        <v>1300</v>
+        <f>B7+51.9</f>
+        <v>1001.9</v>
       </c>
       <c r="C8" s="16">
-        <v>26.3</v>
+        <v>23.3</v>
       </c>
       <c r="D8" s="16">
         <v>4</v>

--- a/Livro1.xlsx
+++ b/Livro1.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D5C425-D446-4128-8241-CC11A6AA61AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC84CA46-3B4D-4C77-9C49-AFDA1434D643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="READ ME" sheetId="2" r:id="rId1"/>
+    <sheet name="Input" sheetId="1" r:id="rId2"/>
+    <sheet name="Materials" sheetId="3" r:id="rId3"/>
+    <sheet name="Loading" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Points</t>
   </si>
@@ -50,28 +53,16 @@
     <t>Ne</t>
   </si>
   <si>
-    <t>Interp</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
     <t>Informations</t>
   </si>
   <si>
-    <t>pip install openpyxl</t>
-  </si>
-  <si>
     <t>pip install pandas</t>
   </si>
   <si>
     <t>Run this commands on Terminal</t>
-  </si>
-  <si>
-    <t>Interpolation Type: 1-Linear ; 0-Cubic (Interp)</t>
-  </si>
-  <si>
-    <t>The measurements are in millimeters</t>
   </si>
   <si>
     <t>Conditions</t>
@@ -113,19 +104,10 @@
     <t>thi</t>
   </si>
   <si>
-    <t>AL2024-T3(2)</t>
-  </si>
-  <si>
-    <t>AL6061-T6(1)</t>
-  </si>
-  <si>
     <t>Element_Dimension</t>
   </si>
   <si>
     <t>Element_Dimension - Size of the element, so we are able to do a study of the mesh</t>
-  </si>
-  <si>
-    <t>Pressure Function</t>
   </si>
   <si>
     <t>Material: 1-Aluminium ; 0-Steel (Properties at the temperature that the engine will work)</t>
@@ -152,7 +134,22 @@
     <t>Nn - Number of nods to add</t>
   </si>
   <si>
-    <t>Dimension_Used</t>
+    <t>All the input data has to be in SI Units</t>
+  </si>
+  <si>
+    <t>pip install numpy</t>
+  </si>
+  <si>
+    <t>Material 1</t>
+  </si>
+  <si>
+    <t>Material 2</t>
+  </si>
+  <si>
+    <t>(AL2024-T3)</t>
+  </si>
+  <si>
+    <t>(AL6061-T6)</t>
   </si>
 </sst>
 </file>
@@ -162,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,13 +195,19 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,13 +234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,18 +288,18 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -313,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,21 +320,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,59 +334,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,7 +418,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29528064993517517"/>
+          <c:y val="6.4732372053452253E-2"/>
+          <c:w val="0.61610279364036491"/>
+          <c:h val="0.91913220776553772"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -472,7 +462,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1'!$C$2:$C$8</c:f>
+              <c:f>Input!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -502,7 +492,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1'!$B$2:$B$8</c:f>
+              <c:f>Input!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -712,6 +702,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.52170623106840686"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1390,13 +1388,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>353523</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>125288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>227133</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
@@ -1414,8 +1412,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="42321839" y="931998"/>
-          <a:ext cx="5083202" cy="8056492"/>
+          <a:off x="43147987" y="866878"/>
+          <a:ext cx="5051129" cy="7501514"/>
           <a:chOff x="16846428" y="389059"/>
           <a:chExt cx="2086708" cy="2509107"/>
         </a:xfrm>
@@ -1624,13 +1622,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>241787</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>14653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>373671</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>139211</xdr:rowOff>
@@ -1687,13 +1685,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>254690</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>175847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>386574</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>117232</xdr:rowOff>
@@ -1750,13 +1748,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>527540</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>109904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>7327</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>51290</xdr:rowOff>
@@ -1813,13 +1811,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>293078</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>109904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>424962</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>51288</xdr:rowOff>
@@ -1876,13 +1874,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>219809</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>351693</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>161193</xdr:rowOff>
@@ -1939,13 +1937,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>395656</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>139212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>527540</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>80596</xdr:rowOff>
@@ -2002,13 +2000,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>298940</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>5863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>430824</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>130421</xdr:rowOff>
@@ -2065,13 +2063,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>367548</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>97526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>405648</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>25720</xdr:rowOff>
@@ -2119,13 +2117,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>508226</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>51288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>359020</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>157453</xdr:rowOff>
@@ -2172,13 +2170,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>320632</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>117232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>592760</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>51290</xdr:rowOff>
@@ -2225,13 +2223,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>273323</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>432289</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>80596</xdr:rowOff>
@@ -2321,13 +2319,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>261101</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>24104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>411510</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>32894</xdr:rowOff>
@@ -2374,16 +2372,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>208360</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>186035</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571488</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2661897</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>8503</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2707,1107 +2705,1046 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C8E3EE-99AB-4972-A73D-D1EFEBD6EA1A}">
-  <dimension ref="A1:AF29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2B2EB7-77CC-487B-A9F9-0DAE1F6C6E4D}">
+  <dimension ref="B1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1328125" customWidth="1"/>
-    <col min="12" max="12" width="5.86328125" customWidth="1"/>
-    <col min="13" max="13" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.06640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.06640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.53125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="83.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="81.9296875" customWidth="1"/>
-    <col min="34" max="34" width="9.1328125" customWidth="1"/>
+    <col min="2" max="2" width="83.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+      <c r="B5" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="45" x14ac:dyDescent="0.45">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+      <c r="B8" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+      <c r="B9" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+      <c r="B10" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+      <c r="B11" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B16" s="17"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" s="17"/>
+    </row>
+    <row r="19" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+      <c r="B20" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.45">
+      <c r="B21" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="20"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B23" s="20"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" s="20"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C8E3EE-99AB-4972-A73D-D1EFEBD6EA1A}">
+  <dimension ref="A1:AH21"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1328125" customWidth="1"/>
+    <col min="13" max="13" width="5.86328125" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.06640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.53125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="81.9296875" customWidth="1"/>
+    <col min="36" max="36" width="9.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="15" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="E1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AG1" s="6"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A2" s="10">
+        <f>COUNTIF(B2:B58, "&lt;&gt;")</f>
+        <v>7</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>10</v>
+      </c>
+      <c r="K2" s="22">
+        <f t="shared" ref="K2:K7" si="0">SQRT((D3-D2)^2+(C3-C2)^2)</f>
+        <v>48.59</v>
+      </c>
+      <c r="L2" s="22">
+        <f t="shared" ref="L2:L7" si="1">ROUND(K2/J2,0)</f>
         <v>5</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="24" t="s">
+      <c r="M2" s="22">
+        <f t="shared" ref="M2:M7" si="2">ROUND(K2/J2,0)-1</f>
+        <v>4</v>
+      </c>
+      <c r="Q2" s="13"/>
+      <c r="W2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AG2" s="7"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>48.59</v>
+      </c>
+      <c r="E3" s="10">
         <v>3</v>
       </c>
-      <c r="L1" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="3" t="s">
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
         <v>6</v>
       </c>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AE1" s="11"/>
-    </row>
-    <row r="2" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="16">
+      <c r="H3" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16">
-        <v>3</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16">
-        <v>0</v>
-      </c>
-      <c r="G2" s="22">
-        <v>1</v>
-      </c>
-      <c r="H2" s="16">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2:I7" si="0">SQRT((C3-C2)^2+(B3-B2)^2)</f>
-        <v>48.59</v>
-      </c>
-      <c r="J2" s="1">
-        <f>I2/H2</f>
-        <v>4.859</v>
-      </c>
-      <c r="K2" s="1">
-        <f>ROUND(I2/H2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="L2" s="1">
-        <f>ROUND(I2/H2,0)-1</f>
-        <v>4</v>
-      </c>
-      <c r="M2" s="16">
-        <v>1</v>
-      </c>
-      <c r="N2" s="16">
-        <v>2</v>
-      </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="16">
-        <f>COUNTIF(A2:A58, "&lt;&gt;")</f>
+      <c r="I3" s="10">
         <v>7</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="34">
-        <v>2700</v>
-      </c>
-      <c r="T2" s="1">
-        <v>2780</v>
-      </c>
-      <c r="U2" s="32"/>
-      <c r="V2" s="4"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AE2" s="12"/>
-    </row>
-    <row r="3" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16">
-        <v>48.59</v>
-      </c>
-      <c r="D3" s="16">
-        <v>3</v>
-      </c>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16">
-        <v>6</v>
-      </c>
-      <c r="G3" s="22">
-        <v>1</v>
-      </c>
-      <c r="H3" s="16">
+      <c r="J3" s="10">
         <v>120</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="22">
         <f t="shared" si="0"/>
         <v>810</v>
       </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J7" si="1">I3/H3</f>
-        <v>6.75</v>
-      </c>
-      <c r="K3" s="1">
-        <f t="shared" ref="K3:K7" si="2">ROUND(I3/H3,0)</f>
+      <c r="L3" s="22">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L3" s="1">
-        <f>ROUND(I3/H3,0)-1</f>
+      <c r="M3" s="22">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M3" s="16">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="14"/>
+      <c r="W3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AG3" s="7"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B4" s="10">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10">
+        <v>810</v>
+      </c>
+      <c r="D4" s="10">
+        <v>48.59</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="N3" s="16">
+      <c r="G4" s="10">
         <v>7</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="4"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AE3" s="12"/>
-    </row>
-    <row r="4" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16">
-        <v>810</v>
-      </c>
-      <c r="C4" s="16">
-        <v>48.59</v>
-      </c>
-      <c r="D4" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="H4" s="11">
         <v>1</v>
       </c>
-      <c r="F4" s="16">
+      <c r="I4" s="10">
         <v>7</v>
       </c>
-      <c r="G4" s="22">
-        <v>1</v>
-      </c>
-      <c r="H4" s="16">
+      <c r="J4" s="10">
         <v>12</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="22">
         <f t="shared" si="0"/>
         <v>69.345114463817879</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="22">
         <f t="shared" si="1"/>
-        <v>5.7787595386514896</v>
-      </c>
-      <c r="K4" s="1">
+        <v>6</v>
+      </c>
+      <c r="M4" s="22">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="L4" s="1">
-        <f>ROUND(I4/H4,0)-1</f>
         <v>5</v>
       </c>
-      <c r="M4" s="16">
-        <v>1</v>
-      </c>
-      <c r="N4" s="16">
+      <c r="Q4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AG4" s="7"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B5" s="10">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10">
+        <f>C4+58.85</f>
+        <v>868.85</v>
+      </c>
+      <c r="D5" s="10">
+        <v>11.91</v>
+      </c>
+      <c r="E5" s="10">
+        <v>4</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
         <v>7</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="34">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="T4" s="1">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="U4" s="32"/>
-      <c r="V4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AE4" s="12"/>
-    </row>
-    <row r="5" spans="1:31" ht="45" x14ac:dyDescent="0.45">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16">
-        <f>B4+58.85</f>
-        <v>868.85</v>
-      </c>
-      <c r="C5" s="16">
-        <v>11.91</v>
-      </c>
-      <c r="D5" s="16">
-        <v>4</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="H5" s="11">
+        <v>2</v>
+      </c>
+      <c r="I5" s="10">
         <v>7</v>
       </c>
-      <c r="G5" s="22">
-        <v>2</v>
-      </c>
-      <c r="H5" s="16">
+      <c r="J5" s="10">
         <v>10</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="22">
         <f t="shared" si="0"/>
         <v>31.285629288860385</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="22">
         <f t="shared" si="1"/>
-        <v>3.1285629288860384</v>
-      </c>
-      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="22">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L5" s="1">
-        <f>ROUND(I5/H5,0)-1</f>
         <v>2</v>
       </c>
-      <c r="M5" s="16">
+      <c r="Q5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AG5" s="7"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B6" s="10">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>900</v>
+      </c>
+      <c r="D6" s="10">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="N5" s="16">
+      <c r="G6" s="10">
         <v>7</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S5" s="34">
-        <v>0.33</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="U5" s="32"/>
-      <c r="V5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AE5" s="12"/>
-    </row>
-    <row r="6" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16">
-        <v>900</v>
-      </c>
-      <c r="C6" s="16">
-        <v>9</v>
-      </c>
-      <c r="D6" s="16">
-        <v>4</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="H6" s="11">
+        <v>2</v>
+      </c>
+      <c r="I6" s="10">
         <v>7</v>
       </c>
-      <c r="G6" s="22">
-        <v>2</v>
-      </c>
-      <c r="H6" s="16">
+      <c r="J6" s="10">
         <v>25</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="22">
         <f t="shared" si="0"/>
         <v>50.009999000199947</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="22">
         <f t="shared" si="1"/>
-        <v>2.0003999600079978</v>
-      </c>
-      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="22">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AG6" s="7"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B7" s="10">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10">
+        <v>950</v>
+      </c>
+      <c r="D7" s="10">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>7</v>
+      </c>
+      <c r="H7" s="11">
         <v>2</v>
       </c>
-      <c r="L6" s="1">
-        <f>ROUND(I6/H6,0)-1</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="16">
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
+      <c r="I7" s="10">
         <v>7</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="S6" s="34">
-        <v>276</v>
-      </c>
-      <c r="T6" s="1">
-        <v>345</v>
-      </c>
-      <c r="U6" s="32"/>
-      <c r="V6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AE6" s="12"/>
-    </row>
-    <row r="7" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16">
-        <v>950</v>
-      </c>
-      <c r="C7" s="16">
-        <v>10</v>
-      </c>
-      <c r="D7" s="16">
-        <v>4</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>7</v>
-      </c>
-      <c r="G7" s="22">
-        <v>2</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="J7" s="10">
         <v>30</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="22">
         <f t="shared" si="0"/>
         <v>53.577047324390669</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="22">
         <f t="shared" si="1"/>
-        <v>1.7859015774796889</v>
-      </c>
-      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="22">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L7" s="1">
-        <f>ROUND(I7/H7,0)-1</f>
         <v>1</v>
       </c>
-      <c r="M7" s="16">
-        <v>1</v>
-      </c>
-      <c r="N7" s="16">
+      <c r="Q7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AG7" s="7"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
         <v>7</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="34">
-        <v>310</v>
-      </c>
-      <c r="T7" s="1">
-        <v>483</v>
-      </c>
-      <c r="U7" s="32"/>
-      <c r="V7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AE7" s="12"/>
-    </row>
-    <row r="8" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="16">
+      <c r="C8" s="10">
+        <f>C7+51.9</f>
+        <v>1001.9</v>
+      </c>
+      <c r="D8" s="10">
+        <v>23.3</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="16">
-        <f>B7+51.9</f>
-        <v>1001.9</v>
-      </c>
-      <c r="C8" s="16">
-        <v>23.3</v>
-      </c>
-      <c r="D8" s="16">
-        <v>4</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>7</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="34">
-        <v>295</v>
-      </c>
-      <c r="T8" s="1">
-        <v>462</v>
-      </c>
-      <c r="U8" s="32"/>
-      <c r="V8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AE8" s="12"/>
-    </row>
-    <row r="9" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="H8" s="11"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="Q8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AG8" s="7"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="23"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="S9" s="34">
-        <v>207</v>
-      </c>
-      <c r="T9" s="1">
-        <v>283</v>
-      </c>
-      <c r="U9" s="32"/>
-      <c r="V9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AE9" s="12"/>
-    </row>
-    <row r="10" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="P10" s="10"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AE10" s="12"/>
-    </row>
-    <row r="11" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AE11" s="12"/>
-    </row>
-    <row r="12" spans="1:31" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AE12" s="12"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AE13" s="12"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AE14" s="12"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AE15" s="12"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AE16" s="12"/>
-    </row>
-    <row r="17" spans="1:32" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AE17" s="12"/>
-    </row>
-    <row r="18" spans="1:32" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AE18" s="12"/>
-    </row>
-    <row r="19" spans="1:32" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AE19" s="12"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="16"/>
+      <c r="R9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AG9" s="7"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AG10" s="7"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AG11" s="7"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AG12" s="7"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AG13" s="7"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AG14" s="7"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AG15" s="7"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AG16" s="7"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AG17" s="7"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AG18" s="7"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AG19" s="7"/>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="8"/>
+      <c r="V20" s="2"/>
       <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="8"/>
+      <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="V22" s="9"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFFF1FA-C62B-4B59-8919-F5A7A9E45D64}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="28.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="12">
+        <v>2700</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+      <c r="A3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="12">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="C3" s="1">
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+      <c r="A4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+      <c r="A5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12">
+        <v>276</v>
+      </c>
+      <c r="C5" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+      <c r="A6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12">
+        <v>310</v>
+      </c>
+      <c r="C6" s="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+      <c r="A7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="12">
+        <v>295</v>
+      </c>
+      <c r="C7" s="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+      <c r="A8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12">
+        <v>207</v>
+      </c>
+      <c r="C8" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC94FB2-B591-4728-AF0F-84260587B016}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Livro1.xlsx
+++ b/Livro1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC84CA46-3B4D-4C77-9C49-AFDA1434D643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE84A91-7037-4949-B239-72B37F8EFC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="2" r:id="rId1"/>
-    <sheet name="Input" sheetId="1" r:id="rId2"/>
-    <sheet name="Materials" sheetId="3" r:id="rId3"/>
-    <sheet name="Loading" sheetId="4" r:id="rId4"/>
+    <sheet name="Materials" sheetId="3" r:id="rId2"/>
+    <sheet name="Loading" sheetId="4" r:id="rId3"/>
+    <sheet name="Input" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Points</t>
   </si>
@@ -104,9 +104,6 @@
     <t>thi</t>
   </si>
   <si>
-    <t>Element_Dimension</t>
-  </si>
-  <si>
     <t>Element_Dimension - Size of the element, so we are able to do a study of the mesh</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
   </si>
   <si>
     <t>The coloured cells are for the user to input data</t>
-  </si>
-  <si>
-    <t>Straight Line Distance Between Points</t>
   </si>
   <si>
     <t>Ne - Number of elements between 2 points</t>
@@ -146,10 +140,43 @@
     <t>Material 2</t>
   </si>
   <si>
-    <t>(AL2024-T3)</t>
+    <t>Loading</t>
   </si>
   <si>
-    <t>(AL6061-T6)</t>
+    <t>t [s]</t>
+  </si>
+  <si>
+    <t>p1 [bar]</t>
+  </si>
+  <si>
+    <t>Material 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance </t>
+  </si>
+  <si>
+    <t>AL6061-T6 @ 260ºC</t>
+  </si>
+  <si>
+    <t>AL6061-T6 @ 204ºC</t>
+  </si>
+  <si>
+    <t>AL6061-T6 @ 316ºC</t>
+  </si>
+  <si>
+    <t>AL2024-T3 @ 260ºC</t>
+  </si>
+  <si>
+    <t>Material 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Materials </t>
+  </si>
+  <si>
+    <t>Estimated as 85% of the Tensile Strength</t>
+  </si>
+  <si>
+    <t>Element Dimension</t>
   </si>
 </sst>
 </file>
@@ -159,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +233,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,12 +269,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -295,22 +336,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,16 +376,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -368,21 +388,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -416,6 +485,908 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Loading</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6594925634295702E-2"/>
+          <c:y val="0.12541666666666668"/>
+          <c:w val="0.87651618547681542"/>
+          <c:h val="0.75234580052493438"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Loading!$A$3:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57800000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77099999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96299999999999986</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1569999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2849999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6709999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8629999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9909999999999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0559999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3129999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.3769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.4419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.6339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.6989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.762</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.827</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.891</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.956</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.0190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.0840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.1480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.2130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.2760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.3410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.4050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.47</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.5330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.5980000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.6620000000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.7260000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.7900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.8550000000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.9190000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.9830000000000005</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.0470000000000006</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.112000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.1770000000000014</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.2400000000000011</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.3050000000000015</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.3690000000000015</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.4340000000000019</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.4970000000000017</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.5620000000000021</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.6260000000000021</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.6910000000000025</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.7540000000000022</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.8190000000000026</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.8830000000000027</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.9480000000000031</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.0110000000000028</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.0740000000000025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Loading!$B$3:$B$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.91</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.91</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.91</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.91</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.91</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26.91</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26.91</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>26.91</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27.64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>26.91</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.44</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>23.97</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>21.77</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18.84</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15.91</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.44</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.24</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.51</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10.78</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10.039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.31</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.58</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.65</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-343B-4735-AF04-AFCEC4F136EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="839603312"/>
+        <c:axId val="574826240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="839603312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>t [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574826240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="574826240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>p1 [bar]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="839603312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
@@ -436,11 +1407,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -450,11 +1422,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -864,6 +1840,33 @@
   <cs:variation>
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -1384,17 +2387,574 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>250030</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>97630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>288130</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>126205</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41A49AD-8E24-54CF-7E1D-D4A374A51399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>353523</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>125288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>227133</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
@@ -1412,8 +2972,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="43147987" y="866878"/>
-          <a:ext cx="5051129" cy="7501514"/>
+          <a:off x="42028953" y="850325"/>
+          <a:ext cx="5055493" cy="7255876"/>
           <a:chOff x="16846428" y="389059"/>
           <a:chExt cx="2086708" cy="2509107"/>
         </a:xfrm>
@@ -1622,13 +3182,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>241787</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>14653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>373671</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>139211</xdr:rowOff>
@@ -1685,13 +3245,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>254690</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>175847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>386574</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>117232</xdr:rowOff>
@@ -1748,13 +3308,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>527540</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>109904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>7327</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>51290</xdr:rowOff>
@@ -1811,13 +3371,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>293078</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>109904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>424962</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>51288</xdr:rowOff>
@@ -1874,13 +3434,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>219809</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>351693</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>161193</xdr:rowOff>
@@ -1937,13 +3497,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>395656</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>139212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>527540</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>80596</xdr:rowOff>
@@ -2000,13 +3560,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>298940</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>5863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>430824</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>130421</xdr:rowOff>
@@ -2063,13 +3623,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>367548</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>97526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>405648</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>25720</xdr:rowOff>
@@ -2117,13 +3677,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>508226</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>51288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>359020</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>157453</xdr:rowOff>
@@ -2170,13 +3730,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>320632</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>117232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>592760</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>51290</xdr:rowOff>
@@ -2223,13 +3783,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>273323</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>432289</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>80596</xdr:rowOff>
@@ -2319,13 +3879,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>261101</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>24104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>411510</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>32894</xdr:rowOff>
@@ -2372,16 +3932,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571488</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>210899</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>16962</xdr:rowOff>
+      <xdr:rowOff>13606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>1364776</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>99514</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2709,7 +4269,7 @@
   <dimension ref="B1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2718,10 +4278,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B1" s="17"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="17"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
@@ -2730,12 +4290,12 @@
     </row>
     <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="B5" s="18" t="s">
-        <v>31</v>
+      <c r="B5" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.45">
@@ -2749,36 +4309,36 @@
       </c>
     </row>
     <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="B8" s="18" t="s">
-        <v>23</v>
+      <c r="B8" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="B9" s="18" t="s">
-        <v>22</v>
+      <c r="B9" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="B10" s="19" t="s">
-        <v>26</v>
+      <c r="B10" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="B11" s="19" t="s">
-        <v>30</v>
+      <c r="B11" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B15" s="17"/>
+      <c r="B15" s="13"/>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B16" s="17"/>
+      <c r="B16" s="13"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="17"/>
+      <c r="B17" s="13"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="17"/>
+      <c r="B18" s="13"/>
     </row>
     <row r="19" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
@@ -2787,7 +4347,7 @@
     </row>
     <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.45">
       <c r="B20" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.45">
@@ -2796,16 +4356,16 @@
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="20"/>
+      <c r="B22" s="16"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B23" s="20"/>
+      <c r="B23" s="16"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B24" s="20"/>
+      <c r="B24" s="16"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B25" s="17"/>
+      <c r="B25" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2813,11 +4373,887 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFFF1FA-C62B-4B59-8919-F5A7A9E45D64}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.9296875" customWidth="1"/>
+    <col min="3" max="3" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="18.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="25">
+        <f>COUNTIF(D1:BE1, "&lt;&gt;")</f>
+        <v>3</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="31">
+        <v>2700</v>
+      </c>
+      <c r="E2" s="31">
+        <v>2700</v>
+      </c>
+      <c r="F2" s="22">
+        <v>2780</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.45">
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="31">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="E3" s="31">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="F3" s="22">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="G3" s="22">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.45">
+      <c r="C4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0.33</v>
+      </c>
+      <c r="E4" s="31">
+        <v>0.33</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="G4" s="40">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="31">
+        <v>19</v>
+      </c>
+      <c r="E5" s="31">
+        <v>34</v>
+      </c>
+      <c r="F5" s="22">
+        <v>62</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.45">
+      <c r="C6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="31">
+        <v>32</v>
+      </c>
+      <c r="E6" s="31">
+        <v>51</v>
+      </c>
+      <c r="F6" s="22">
+        <v>76</v>
+      </c>
+      <c r="G6" s="22">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.45">
+      <c r="C7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="29">
+        <v>27</v>
+      </c>
+      <c r="E7" s="29">
+        <v>43</v>
+      </c>
+      <c r="F7" s="30">
+        <v>65</v>
+      </c>
+      <c r="G7" s="22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.45">
+      <c r="C8" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="31">
+        <v>207</v>
+      </c>
+      <c r="E8" s="31">
+        <v>207</v>
+      </c>
+      <c r="F8" s="22">
+        <v>283</v>
+      </c>
+      <c r="G8" s="30">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.45">
+      <c r="D9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="31">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G10" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E12" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E12:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC94FB2-B591-4728-AF0F-84260587B016}">
+  <dimension ref="A1:B82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.45">
+      <c r="A2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>0.129</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>0.192</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="B7" s="1">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="B8" s="1">
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="B9" s="1">
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="B10" s="1">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="B11" s="1">
+        <v>19.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>0.57800000000000007</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20.309999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="B13" s="1">
+        <v>21.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="B14" s="1">
+        <v>21.77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>0.77099999999999991</v>
+      </c>
+      <c r="B15" s="1">
+        <v>23.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="B16" s="1">
+        <v>23.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="B17" s="1">
+        <v>24.71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>0.96299999999999986</v>
+      </c>
+      <c r="B18" s="1">
+        <v>24.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>1.0279999999999998</v>
+      </c>
+      <c r="B19" s="1">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>1.0919999999999999</v>
+      </c>
+      <c r="B20" s="1">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>1.1569999999999998</v>
+      </c>
+      <c r="B21" s="1">
+        <v>26.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>1.2199999999999998</v>
+      </c>
+      <c r="B22" s="1">
+        <v>26.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>1.2849999999999997</v>
+      </c>
+      <c r="B23" s="1">
+        <v>26.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>1.3489999999999998</v>
+      </c>
+      <c r="B24" s="1">
+        <v>26.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>1.4139999999999997</v>
+      </c>
+      <c r="B25" s="1">
+        <v>26.91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>1.4769999999999996</v>
+      </c>
+      <c r="B26" s="1">
+        <v>26.91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>1.5419999999999996</v>
+      </c>
+      <c r="B27" s="1">
+        <v>26.91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>1.6059999999999997</v>
+      </c>
+      <c r="B28" s="1">
+        <v>26.91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>1.6709999999999996</v>
+      </c>
+      <c r="B29" s="1">
+        <v>26.91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>1.7339999999999995</v>
+      </c>
+      <c r="B30" s="1">
+        <v>26.91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>1.7989999999999995</v>
+      </c>
+      <c r="B31" s="1">
+        <v>26.91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>1.8629999999999995</v>
+      </c>
+      <c r="B32" s="1">
+        <v>26.91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>1.9279999999999995</v>
+      </c>
+      <c r="B33" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>1.9909999999999994</v>
+      </c>
+      <c r="B34" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>2.0559999999999996</v>
+      </c>
+      <c r="B35" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>2.1199999999999997</v>
+      </c>
+      <c r="B36" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>2.1849999999999996</v>
+      </c>
+      <c r="B37" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>2.2479999999999998</v>
+      </c>
+      <c r="B38" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>2.3129999999999997</v>
+      </c>
+      <c r="B39" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>2.3769999999999998</v>
+      </c>
+      <c r="B40" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>2.4419999999999997</v>
+      </c>
+      <c r="B41" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="B42" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="B43" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>2.6339999999999999</v>
+      </c>
+      <c r="B44" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>2.6989999999999998</v>
+      </c>
+      <c r="B45" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>2.762</v>
+      </c>
+      <c r="B46" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>2.827</v>
+      </c>
+      <c r="B47" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>2.891</v>
+      </c>
+      <c r="B48" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>2.956</v>
+      </c>
+      <c r="B49" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>3.0190000000000001</v>
+      </c>
+      <c r="B50" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>3.0840000000000001</v>
+      </c>
+      <c r="B51" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>3.1480000000000001</v>
+      </c>
+      <c r="B52" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>3.2130000000000001</v>
+      </c>
+      <c r="B53" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>3.2760000000000002</v>
+      </c>
+      <c r="B54" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>3.3410000000000002</v>
+      </c>
+      <c r="B55" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>3.4050000000000002</v>
+      </c>
+      <c r="B56" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>3.47</v>
+      </c>
+      <c r="B57" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>3.5330000000000004</v>
+      </c>
+      <c r="B58" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>3.5980000000000003</v>
+      </c>
+      <c r="B59" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>3.6620000000000004</v>
+      </c>
+      <c r="B60" s="1">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>3.7260000000000004</v>
+      </c>
+      <c r="B61" s="1">
+        <v>26.91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>3.7900000000000005</v>
+      </c>
+      <c r="B62" s="1">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>3.8550000000000004</v>
+      </c>
+      <c r="B63" s="1">
+        <v>23.97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>3.9190000000000005</v>
+      </c>
+      <c r="B64" s="1">
+        <v>21.77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>3.9830000000000005</v>
+      </c>
+      <c r="B65" s="1">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>4.0470000000000006</v>
+      </c>
+      <c r="B66" s="1">
+        <v>15.91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>4.112000000000001</v>
+      </c>
+      <c r="B67" s="1">
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>4.1770000000000014</v>
+      </c>
+      <c r="B68" s="1">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>4.2400000000000011</v>
+      </c>
+      <c r="B69" s="1">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>4.3050000000000015</v>
+      </c>
+      <c r="B70" s="1">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>4.3690000000000015</v>
+      </c>
+      <c r="B71" s="1">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>4.4340000000000019</v>
+      </c>
+      <c r="B72" s="1">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>4.4970000000000017</v>
+      </c>
+      <c r="B73" s="1">
+        <v>10.039999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>4.5620000000000021</v>
+      </c>
+      <c r="B74" s="1">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>4.6260000000000021</v>
+      </c>
+      <c r="B75" s="1">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>4.6910000000000025</v>
+      </c>
+      <c r="B76" s="1">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>4.7540000000000022</v>
+      </c>
+      <c r="B77" s="1">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>4.8190000000000026</v>
+      </c>
+      <c r="B78" s="1">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>4.8830000000000027</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>4.9480000000000031</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>5.0110000000000028</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>5.0740000000000025</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C8E3EE-99AB-4972-A73D-D1EFEBD6EA1A}">
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2828,74 +5264,78 @@
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
     <col min="10" max="10" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1328125" customWidth="1"/>
-    <col min="13" max="13" width="5.86328125" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.06640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.53125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="83.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="81.9296875" customWidth="1"/>
-    <col min="36" max="36" width="9.1328125" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1328125" customWidth="1"/>
+    <col min="14" max="14" width="5.86328125" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.06640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.53125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="81.9296875" customWidth="1"/>
+    <col min="37" max="37" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.45">
+      <c r="A1" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" s="8"/>
-      <c r="AA1" s="8"/>
+      <c r="X1" s="8"/>
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
       <c r="AD1" s="8"/>
-      <c r="AG1" s="6"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AE1" s="8"/>
+      <c r="AH1" s="6"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <f>COUNTIF(B2:B58, "&lt;&gt;")</f>
         <v>7</v>
@@ -2927,76 +5367,83 @@
       <c r="J2" s="10">
         <v>10</v>
       </c>
-      <c r="K2" s="22">
-        <f t="shared" ref="K2:K7" si="0">SQRT((D3-D2)^2+(C3-C2)^2)</f>
+      <c r="K2" s="10">
+        <f>LARGE(Loading!B3:B82,1)</f>
+        <v>27.64</v>
+      </c>
+      <c r="L2" s="10">
+        <f t="shared" ref="L2:L7" si="0">SQRT((D3-D2)^2+(C3-C2)^2)</f>
         <v>48.59</v>
       </c>
-      <c r="L2" s="22">
-        <f t="shared" ref="L2:L7" si="1">ROUND(K2/J2,0)</f>
+      <c r="M2" s="10">
+        <f t="shared" ref="M2:M7" si="1">ROUND(L2/J2,0)</f>
         <v>5</v>
       </c>
-      <c r="M2" s="22">
-        <f t="shared" ref="M2:M7" si="2">ROUND(K2/J2,0)-1</f>
+      <c r="N2" s="10">
+        <f>M2-1</f>
         <v>4</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="W2" s="5"/>
-      <c r="AA2" s="5"/>
+      <c r="X2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B3" s="10">
+      <c r="AE2" s="5"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="1">
         <v>48.59</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="1">
         <v>6</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="19">
         <v>1</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="1">
         <v>7</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="1">
         <v>120</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="1">
+        <f>LARGE(Loading!B3:B82,1)</f>
+        <v>27.64</v>
+      </c>
+      <c r="L3" s="1">
         <f t="shared" si="0"/>
         <v>810</v>
       </c>
-      <c r="L3" s="22">
+      <c r="M3" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="M3" s="22">
-        <f t="shared" si="2"/>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N7" si="2">M3-1</f>
         <v>6</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="14"/>
-      <c r="W3" s="5"/>
-      <c r="AA3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="X3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
-      <c r="AG3" s="7"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AE3" s="5"/>
+      <c r="AH3" s="7"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B4" s="10">
         <v>3</v>
       </c>
@@ -3024,76 +5471,81 @@
       <c r="J4" s="10">
         <v>12</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="10">
+        <f>LARGE(Loading!B3:B82,1)</f>
+        <v>27.64</v>
+      </c>
+      <c r="L4" s="10">
         <f t="shared" si="0"/>
         <v>69.345114463817879</v>
       </c>
-      <c r="L4" s="22">
+      <c r="M4" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="M4" s="22">
+      <c r="N4" s="10">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="AA4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="X4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
-      <c r="AG4" s="7"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B5" s="10">
+      <c r="AE4" s="5"/>
+      <c r="AH4" s="7"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="1">
         <f>C4+58.85</f>
         <v>868.85</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="1">
         <v>11.91</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="1">
         <v>7</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="19">
         <v>2</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="1">
         <v>7</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="1">
         <v>10</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="22"/>
+      <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>31.285629288860385</v>
       </c>
-      <c r="L5" s="22">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M5" s="22">
+      <c r="N5" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="AA5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="X5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
-      <c r="AG5" s="7"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AE5" s="5"/>
+      <c r="AH5" s="7"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B6" s="10">
         <v>5</v>
       </c>
@@ -3121,75 +5573,80 @@
       <c r="J6" s="10">
         <v>25</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="10">
+        <f>(LARGE(Loading!B3:B82,1))*0.965</f>
+        <v>26.672599999999999</v>
+      </c>
+      <c r="L6" s="10">
         <f t="shared" si="0"/>
         <v>50.009999000199947</v>
       </c>
-      <c r="L6" s="22">
+      <c r="M6" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M6" s="22">
+      <c r="N6" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="AA6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="X6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
-      <c r="AG6" s="7"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B7" s="10">
+      <c r="AE6" s="5"/>
+      <c r="AH6" s="7"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="1">
         <v>950</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="1">
         <v>7</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="19">
         <v>2</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="1">
         <v>7</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="1">
         <v>30</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="23"/>
+      <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>53.577047324390669</v>
       </c>
-      <c r="L7" s="22">
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M7" s="22">
+      <c r="N7" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="AA7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="X7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
-      <c r="AG7" s="7"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AE7" s="5"/>
+      <c r="AH7" s="7"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -3200,118 +5657,121 @@
       <c r="D8" s="10">
         <v>23.3</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="10">
         <v>7</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="Q8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="AA8" s="5"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="10">
+        <f>(LARGE(Loading!B3:B82,1))*0.0183</f>
+        <v>0.50581200000000004</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="R8" s="5"/>
+      <c r="X8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
-      <c r="AG8" s="7"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="16"/>
-      <c r="R9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="AA9" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AH8" s="7"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="S9" s="5"/>
+      <c r="X9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
-      <c r="AG9" s="7"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="R10" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AH9" s="7"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="Y10" s="5"/>
+      <c r="X10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
-      <c r="AG10" s="7"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="R11" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AH10" s="7"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-      <c r="Y11" s="5"/>
+      <c r="X11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
-      <c r="AG11" s="7"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AH11" s="7"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -3320,29 +5780,29 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-      <c r="Y12" s="5"/>
+      <c r="X12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
-      <c r="AG12" s="7"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AH12" s="7"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -3351,29 +5811,29 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
-      <c r="Y13" s="5"/>
+      <c r="X13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
-      <c r="AG13" s="7"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AH13" s="7"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -3382,29 +5842,29 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-      <c r="Y14" s="5"/>
+      <c r="X14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
-      <c r="AG14" s="7"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AH14" s="7"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -3413,29 +5873,29 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="Y15" s="5"/>
+      <c r="X15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
-      <c r="AG15" s="7"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AH15" s="7"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -3444,29 +5904,29 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-      <c r="Y16" s="5"/>
+      <c r="X16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
-      <c r="AG16" s="7"/>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AH16" s="7"/>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -3475,29 +5935,29 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
-      <c r="Y17" s="5"/>
+      <c r="X17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
-      <c r="AG17" s="7"/>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AH17" s="7"/>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.45">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -3506,15 +5966,16 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
-      <c r="Y18" s="5"/>
+      <c r="X18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
-      <c r="AG18" s="7"/>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="AE18" s="5"/>
+      <c r="AH18" s="7"/>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -3537,15 +5998,16 @@
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
-      <c r="Y19" s="5"/>
+      <c r="X19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
-      <c r="AG19" s="7"/>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="AE19" s="5"/>
+      <c r="AH19" s="7"/>
+    </row>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3568,17 +6030,18 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="X20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AG20" s="2"/>
+      <c r="AF20" s="2"/>
       <c r="AH20" s="2"/>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="AI20" s="2"/>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3601,150 +6064,20 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="X21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
-      <c r="AG21" s="2"/>
+      <c r="AF21" s="2"/>
       <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFFF1FA-C62B-4B59-8919-F5A7A9E45D64}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="28.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="12">
-        <v>2700</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2780</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.45">
-      <c r="A3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="12">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="C3" s="1">
-        <v>73.099999999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.45">
-      <c r="A4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0.33</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.45">
-      <c r="A5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12">
-        <v>276</v>
-      </c>
-      <c r="C5" s="1">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.45">
-      <c r="A6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="12">
-        <v>310</v>
-      </c>
-      <c r="C6" s="1">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.45">
-      <c r="A7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="12">
-        <v>295</v>
-      </c>
-      <c r="C7" s="1">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.45">
-      <c r="A8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="12">
-        <v>207</v>
-      </c>
-      <c r="C8" s="1">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC94FB2-B591-4728-AF0F-84260587B016}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Livro1.xlsx
+++ b/Livro1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE84A91-7037-4949-B239-72B37F8EFC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBD16EA-3CBE-4B14-9E3D-089E6B37D739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
@@ -340,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,14 +396,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -424,12 +417,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,16 +429,16 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3933,15 +3920,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>210899</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>13606</xdr:rowOff>
+      <xdr:colOff>196683</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1364776</xdr:colOff>
+      <xdr:colOff>1350560</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>99514</xdr:rowOff>
+      <xdr:rowOff>21324</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4377,7 +4364,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4389,182 +4376,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>36</v>
       </c>
+      <c r="G1" s="24" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="25">
+      <c r="A2" s="22">
         <f>COUNTIF(D1:BE1, "&lt;&gt;")</f>
-        <v>3</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="12">
         <v>2700</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="12">
         <v>2700</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="1">
         <v>2780</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>42</v>
+      <c r="G2" s="1">
+        <v>2700</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="12">
         <v>68.900000000000006</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="12">
         <v>68.900000000000006</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="1">
         <v>73.099999999999994</v>
       </c>
-      <c r="G3" s="22">
-        <v>2700</v>
+      <c r="G3" s="9">
+        <v>68.900000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="12">
         <v>0.33</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="12">
         <v>0.33</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="1">
         <v>0.33</v>
       </c>
-      <c r="G4" s="40">
-        <v>68.900000000000006</v>
+      <c r="G4" s="1">
+        <v>0.33</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="12">
         <v>19</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="12">
         <v>34</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="1">
         <v>62</v>
       </c>
-      <c r="G5" s="22">
-        <v>0.33</v>
+      <c r="G5" s="1">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="12">
         <v>32</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="12">
         <v>51</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="1">
         <v>76</v>
       </c>
-      <c r="G6" s="22">
-        <v>103</v>
+      <c r="G6" s="1">
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="26">
         <v>27</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="26">
         <v>43</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="27">
         <v>65</v>
       </c>
-      <c r="G7" s="22">
-        <v>131</v>
+      <c r="G7" s="27">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="12">
         <v>207</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="12">
         <v>207</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="1">
         <v>283</v>
       </c>
-      <c r="G8" s="30">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="D9" s="22" t="s">
+      <c r="G8" s="12">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="31">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G10" s="22" t="s">
+      <c r="G9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="24"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4580,16 +4565,16 @@
   <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="35"/>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
@@ -5253,7 +5238,7 @@
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5286,46 +5271,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="28" t="s">
         <v>27</v>
       </c>
       <c r="X1" s="8"/>
@@ -5524,7 +5509,7 @@
       <c r="J5" s="1">
         <v>10</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>31.285629288860385</v>
@@ -5625,7 +5610,7 @@
       <c r="J7" s="1">
         <v>30</v>
       </c>
-      <c r="K7" s="23"/>
+      <c r="K7" s="20"/>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>53.577047324390669</v>
@@ -5657,14 +5642,14 @@
       <c r="D8" s="10">
         <v>23.3</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="10">
         <v>7</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
       <c r="K8" s="10">
         <f>(LARGE(Loading!B3:B82,1))*0.0183</f>
         <v>0.50581200000000004</v>

--- a/Livro1.xlsx
+++ b/Livro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B17207-1D63-414C-B468-D43CC8C8E4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BDB140-B9B7-41E9-9126-A586EECB988B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="2" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Points</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>p1</t>
+  </si>
+  <si>
+    <t>AnalysisType</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>Modal</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
   </si>
 </sst>
 </file>
@@ -353,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -445,11 +457,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,8 +469,20 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2978,8 +3002,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="42028953" y="850325"/>
-          <a:ext cx="5055493" cy="7255876"/>
+          <a:off x="41119102" y="850325"/>
+          <a:ext cx="5055494" cy="7255876"/>
           <a:chOff x="16846428" y="389059"/>
           <a:chExt cx="2086708" cy="2509107"/>
         </a:xfrm>
@@ -3938,16 +3962,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>196683</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127338</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47410</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1350560</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>21324</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>618415</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>92407</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4554,15 +4578,15 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -4583,8 +4607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC94FB2-B591-4728-AF0F-84260587B016}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4597,20 +4621,20 @@
         <v>26</v>
       </c>
       <c r="B1" s="36"/>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="33" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="34">
+      <c r="A2" s="37">
         <f>COUNTIF(C2:C315, "&lt;&gt;")</f>
         <v>80</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="1">
         <v>0</v>
       </c>
@@ -5509,8 +5533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C8E3EE-99AB-4972-A73D-D1EFEBD6EA1A}">
   <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView zoomScale="67" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="67" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5526,10 +5550,9 @@
     <col min="13" max="13" width="6.1328125" customWidth="1"/>
     <col min="14" max="14" width="5.86328125" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.06640625" customWidth="1"/>
+    <col min="18" max="19" width="13" customWidth="1"/>
     <col min="20" max="20" width="28.06640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.265625" bestFit="1" customWidth="1"/>
@@ -5585,6 +5608,18 @@
       <c r="N1" s="27" t="s">
         <v>27</v>
       </c>
+      <c r="P1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="41" t="s">
+        <v>49</v>
+      </c>
       <c r="X1" s="8"/>
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
@@ -5639,6 +5674,16 @@
       <c r="N2" s="10">
         <f>M2-1</f>
         <v>4</v>
+      </c>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="40">
+        <v>1</v>
+      </c>
+      <c r="R2" s="40">
+        <v>1</v>
+      </c>
+      <c r="S2" s="40">
+        <v>1</v>
       </c>
       <c r="X2" s="5"/>
       <c r="AB2" s="5"/>
